--- a/Small Instances/Small2.xlsx
+++ b/Small Instances/Small2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7143A3-7784-B945-A928-89FEB1E465E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DE69C-359B-42C7-A9D9-677488511A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instances" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Medium" sheetId="6" r:id="rId6"/>
     <sheet name="Large" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1198,19 +1196,19 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1326,56 +1324,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="2">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C6" ca="1" si="3">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D6" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:F3" ca="1" si="5">C3*111.021</f>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G6" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H6" ca="1" si="7">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="69">
         <f t="shared" ref="I3:I6" ca="1" si="8">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:K3" ca="1" si="9">H3*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -1399,56 +1397,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="10">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="69">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1469,7 +1467,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1627,7 +1625,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1645,7 +1643,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1663,7 +1661,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1681,7 +1679,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1700,7 +1698,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1721,7 +1719,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1730,7 +1728,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -1740,7 +1738,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1750,7 +1748,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1760,7 +1758,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -1783,7 +1781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -1808,7 +1806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -1833,7 +1831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -1864,7 +1862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -1895,7 +1893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -1927,7 +1925,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -1955,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -1983,7 +1981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2011,7 +2009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2039,7 +2037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2067,7 +2065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2095,7 +2093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2123,7 +2121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2151,7 +2149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2179,7 +2177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2205,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2233,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2261,7 +2259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2289,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2317,7 +2315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2345,7 +2343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2371,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2399,7 +2397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2427,7 +2425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2455,7 +2453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2483,7 +2481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -2560,15 +2558,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -2588,82 +2586,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2770,7 +2768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2814,7 +2812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2850,9 +2848,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -2867,7 +2865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +2990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -3092,7 +3090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -3150,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3268,7 +3266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -3422,9 +3420,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3444,7 +3442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3484,7 +3482,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3535,7 +3533,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +3577,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3604,19 +3602,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>90</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -3828,7 +3826,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="62" t="s">
         <v>92</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="62" t="s">
         <v>93</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
       <c r="K8" s="61"/>
@@ -3962,7 +3960,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="61"/>
       <c r="G9" s="61"/>
       <c r="K9" s="61"/>
@@ -3977,7 +3975,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
       <c r="K10" s="61"/>
@@ -3992,7 +3990,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>68</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4047,7 +4045,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="62" t="s">
         <v>90</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="3" t="e">
@@ -4142,7 +4140,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
         <v>92</v>
       </c>
@@ -4192,7 +4190,7 @@
       </c>
       <c r="O15" s="71"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="62" t="s">
         <v>93</v>
       </c>
@@ -4242,7 +4240,7 @@
       </c>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="62" t="s">
         <v>96</v>
       </c>
@@ -4292,7 +4290,7 @@
       </c>
       <c r="O17" s="71"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="62" t="s">
         <v>97</v>
       </c>
@@ -4342,7 +4340,7 @@
       </c>
       <c r="O18" s="71"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
@@ -4364,7 +4362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
@@ -4388,7 +4386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E21" s="60"/>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
@@ -4412,7 +4410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>69</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
@@ -4592,7 +4590,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -4619,7 +4617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
@@ -4753,7 +4751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E29" s="60"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
@@ -4847,7 +4845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E30" s="60"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
@@ -4874,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E31" s="60"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
@@ -4901,7 +4899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="60"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
@@ -5096,7 +5094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5163,7 +5161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
@@ -5364,7 +5362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5481,7 +5479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5533,7 +5531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5585,7 +5583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5637,7 +5635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
@@ -5763,7 +5761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
@@ -5835,13 +5833,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="D48" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5889,13 +5887,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="D49" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5943,13 +5941,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D50" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5997,13 +5995,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="D51" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6023,7 +6021,7 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" ref="H51:H56" ca="1" si="90">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I51" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6052,13 +6050,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D52" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6078,7 +6076,7 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I52" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6107,13 +6105,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D53" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6133,7 +6131,7 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I53" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6162,13 +6160,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="D54" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6188,7 +6186,7 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I54" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6217,13 +6215,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D55" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6243,7 +6241,7 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I55" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6272,13 +6270,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D56" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6298,7 +6296,7 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I56" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6327,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E57" s="60"/>
       <c r="F57" s="73"/>
       <c r="G57" s="73"/>
@@ -6336,13 +6334,13 @@
       <c r="K57" s="73"/>
       <c r="L57" s="73"/>
     </row>
-    <row r="58" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" ref="C58:C88" ca="1" si="102">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D58" s="3" t="e">
         <f t="shared" ref="D58:D88" ca="1" si="103">_xludf.XLOOKUP(C58,$W$3:$W$12,$X$3:$X$12,0)</f>
@@ -6362,7 +6360,7 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" ref="H58:H88" ca="1" si="106">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I58" s="6" t="e">
         <f t="shared" ref="I58:I88" ca="1" si="107">_xludf.XLOOKUP(H58,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
@@ -6388,13 +6386,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="D59" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6414,7 +6412,7 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I59" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6440,13 +6438,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="D60" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6466,7 +6464,7 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I60" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6492,13 +6490,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="D61" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6544,13 +6542,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D62" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6570,7 +6568,7 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I62" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6596,13 +6594,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="D63" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6622,7 +6620,7 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I63" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6648,13 +6646,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D64" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6674,7 +6672,7 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I64" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6700,13 +6698,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D65" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6752,13 +6750,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="D66" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6804,13 +6802,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="D67" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6830,7 +6828,7 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I67" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6856,13 +6854,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D68" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6882,7 +6880,7 @@
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I68" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6908,13 +6906,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="D69" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6934,7 +6932,7 @@
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I69" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6960,13 +6958,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="D70" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7012,13 +7010,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D71" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7038,7 +7036,7 @@
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I71" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7064,13 +7062,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D72" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7090,7 +7088,7 @@
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I72" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7116,13 +7114,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D73" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7142,7 +7140,7 @@
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I73" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7168,13 +7166,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D74" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7194,7 +7192,7 @@
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I74" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7220,13 +7218,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D75" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7246,7 +7244,7 @@
       </c>
       <c r="H75" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I75" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7272,7 +7270,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>24</v>
       </c>
@@ -7324,13 +7322,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="D77" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7350,7 +7348,7 @@
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I77" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7376,13 +7374,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D78" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7428,13 +7426,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D79" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7454,7 +7452,7 @@
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I79" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7480,7 +7478,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
         <v>24</v>
       </c>
@@ -7506,7 +7504,7 @@
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I80" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7532,13 +7530,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="D81" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7584,7 +7582,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>24</v>
       </c>
@@ -7610,7 +7608,7 @@
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I82" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7636,13 +7634,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D83" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7662,7 +7660,7 @@
       </c>
       <c r="H83" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I83" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7688,13 +7686,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D84" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7714,7 +7712,7 @@
       </c>
       <c r="H84" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I84" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7740,13 +7738,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="85" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="D85" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7766,7 +7764,7 @@
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I85" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7792,13 +7790,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="D86" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7818,7 +7816,7 @@
       </c>
       <c r="H86" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I86" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7844,7 +7842,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
         <v>24</v>
       </c>
@@ -7870,7 +7868,7 @@
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I87" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7896,13 +7894,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="88" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D88" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7922,7 +7920,7 @@
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I88" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7948,7 +7946,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7965,7 +7963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7980,14 +7978,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
